--- a/dataA.xlsx
+++ b/dataA.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20338"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{061B279A-65AA-4C88-BAB2-4E712A38EB5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA821678-643F-4A94-8D87-1750C9009703}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -341,8 +341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC355"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I332" workbookViewId="0">
-      <selection activeCell="AC1" sqref="AC1:AC352"/>
+    <sheetView tabSelected="1" topLeftCell="G332" workbookViewId="0">
+      <selection activeCell="AB354" sqref="AB354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -31313,7 +31313,7 @@
         <v>6</v>
       </c>
       <c r="AB348">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC348">
         <v>5</v>
@@ -31399,10 +31399,10 @@
         <v>6</v>
       </c>
       <c r="AA349">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB349">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AC349">
         <v>5</v>
@@ -31485,13 +31485,13 @@
         <v>6</v>
       </c>
       <c r="Z350">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA350">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AB350">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AC350">
         <v>7</v>
@@ -31571,16 +31571,16 @@
         <v>6</v>
       </c>
       <c r="Y351">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z351">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AA351">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AB351">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC351">
         <v>6</v>
@@ -31657,19 +31657,19 @@
         <v>6</v>
       </c>
       <c r="X352">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y352">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Z352">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AA352">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB352">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AC352">
         <v>6</v>
@@ -31743,22 +31743,22 @@
         <v>6</v>
       </c>
       <c r="W353">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X353">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Y353">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Z353">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA353">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AB353">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="354" spans="1:28" x14ac:dyDescent="0.25">
@@ -31826,25 +31826,25 @@
         <v>110.9708333333333</v>
       </c>
       <c r="V354">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W354">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X354">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z354">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AA354">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AB354">
-        <v>6</v>
+        <v>3.72018513888889</v>
       </c>
     </row>
     <row r="355" spans="1:28" x14ac:dyDescent="0.25">
@@ -31912,25 +31912,25 @@
         <v>292.73750000000001</v>
       </c>
       <c r="V355">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W355">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Y355">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Z355">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AA355">
-        <v>6</v>
+        <v>3.72018513888889</v>
       </c>
       <c r="AB355">
-        <v>6</v>
+        <v>4.3620884375000006</v>
       </c>
     </row>
   </sheetData>
